--- a/config/vjudge.xlsx
+++ b/config/vjudge.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Liupo\project\OJtool\vjChecker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Liupo\project\OJtool\vjChecker\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF4EF4E7-A1C1-481A-A01D-006595524128}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8123175-8BFB-428F-B9AE-A211B36245AE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1245" yWindow="-120" windowWidth="27675" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4440" yWindow="3075" windowWidth="20580" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <r>
       <rPr>
@@ -58,863 +58,6 @@
       </rPr>
       <t>牛客用户名</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>蓝宗慰</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>lanzongwei</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>神之六魄</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>李浩然</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>The__Flash</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>王政</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>LULUC</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>CEHWZ</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>李瑞琪</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>LR123123</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>奚文涓</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18XiWenjuan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>王祥男</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19wangxiangnan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Visiter19(wangxiangnan)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>马国华</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019maguohua</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>many︿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>马云龙</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shenmafuyun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>神马浮云!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>孔浩冉</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019konghaoran</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>赵宝乐</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Thankyou</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Thank_you</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>商累浩</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019shangleihao</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19shangleihao</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>黄琪瑶</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19huangqiyao</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>韩瑶瑶</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19hanyaoyao</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>深山一口井_</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>秦鹏</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18qinpeng</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>此纪念金</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>程恩浩</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19chengenhao</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>刘文卓</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19liuwenzhuo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LoGic123456789</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>张立坤</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19zhanglikun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孤单光量子（19zhanglikun）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>许世豪</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19xushihao</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>丨暗夜丶大主教丨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>侯宛辰</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>19houwanchen</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>wanwaner</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>熊淑贤</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019xiongshuxian</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>王玉莹</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019wangyuying</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lichang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>纪毅</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019jiyi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小毅儿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>李亚君</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019liyajun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19李亚君</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>杨煜琦</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19forward</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>qwerbang(yyq)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>查程曦</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mo_cheng</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Mo_Cheng </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>连泰杰</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2019liantaijie</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="arial"/>
-      </rPr>
-      <t>2019liantaijie</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>姬彬荃</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2019jibinquan</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>小白哎（）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>邓博</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2019dengbo</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Moveyourbody</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>姜晶晶</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>19jiangjingjing</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>孙海燕</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19sunhaiyan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>影11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>隋龙宇</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19suilongyu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陆明燃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>陈子龙</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19chenzilong</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>良良枫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>王欣</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18wangxin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>!.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>闫明富</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18yanmingfu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>绝伦i独舞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>宋奕豪</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018SongYihao</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魂殇邪龙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>李荣奥</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19lirongao</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>__GHOST</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1339,8 +482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -1385,15 +528,9 @@
       <c r="Z1" s="3"/>
     </row>
     <row r="2" spans="1:26" ht="16.5">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -1419,15 +556,9 @@
       <c r="Z2" s="3"/>
     </row>
     <row r="3" spans="1:26" ht="16.5">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -1453,15 +584,9 @@
       <c r="Z3" s="3"/>
     </row>
     <row r="4" spans="1:26" ht="16.5">
-      <c r="A4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -1487,15 +612,9 @@
       <c r="Z4" s="3"/>
     </row>
     <row r="5" spans="1:26" ht="16.5">
-      <c r="A5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -1521,15 +640,9 @@
       <c r="Z5" s="3"/>
     </row>
     <row r="6" spans="1:26" ht="16.5">
-      <c r="A6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -1555,15 +668,9 @@
       <c r="Z6" s="3"/>
     </row>
     <row r="7" spans="1:26" ht="16.5">
-      <c r="A7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -1589,15 +696,9 @@
       <c r="Z7" s="3"/>
     </row>
     <row r="8" spans="1:26" ht="16.5">
-      <c r="A8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -1623,15 +724,9 @@
       <c r="Z8" s="3"/>
     </row>
     <row r="9" spans="1:26" ht="16.5">
-      <c r="A9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -1657,15 +752,9 @@
       <c r="Z9" s="3"/>
     </row>
     <row r="10" spans="1:26" ht="16.5">
-      <c r="A10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -1691,15 +780,9 @@
       <c r="Z10" s="3"/>
     </row>
     <row r="11" spans="1:26" ht="16.5">
-      <c r="A11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -1725,15 +808,9 @@
       <c r="Z11" s="3"/>
     </row>
     <row r="12" spans="1:26" ht="16.5">
-      <c r="A12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -1759,15 +836,9 @@
       <c r="Z12" s="3"/>
     </row>
     <row r="13" spans="1:26" ht="16.5">
-      <c r="A13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="4">
-        <v>32402</v>
-      </c>
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="4"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -1793,15 +864,9 @@
       <c r="Z13" s="3"/>
     </row>
     <row r="14" spans="1:26" ht="16.5">
-      <c r="A14" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -1827,15 +892,9 @@
       <c r="Z14" s="3"/>
     </row>
     <row r="15" spans="1:26" ht="16.5">
-      <c r="A15" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>39</v>
-      </c>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -1861,15 +920,9 @@
       <c r="Z15" s="3"/>
     </row>
     <row r="16" spans="1:26" ht="16.5">
-      <c r="A16" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>41</v>
-      </c>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1895,15 +948,9 @@
       <c r="Z16" s="3"/>
     </row>
     <row r="17" spans="1:26" ht="16.5">
-      <c r="A17" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -1929,15 +976,9 @@
       <c r="Z17" s="3"/>
     </row>
     <row r="18" spans="1:26" ht="16.5">
-      <c r="A18" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>47</v>
-      </c>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -1963,15 +1004,9 @@
       <c r="Z18" s="3"/>
     </row>
     <row r="19" spans="1:26" ht="16.5">
-      <c r="A19" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>50</v>
-      </c>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -1997,15 +1032,9 @@
       <c r="Z19" s="3"/>
     </row>
     <row r="20" spans="1:26" ht="16.5">
-      <c r="A20" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>53</v>
-      </c>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -2031,15 +1060,9 @@
       <c r="Z20" s="3"/>
     </row>
     <row r="21" spans="1:26" ht="16.5">
-      <c r="A21" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>55</v>
-      </c>
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -2065,15 +1088,9 @@
       <c r="Z21" s="3"/>
     </row>
     <row r="22" spans="1:26" ht="16.5">
-      <c r="A22" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>58</v>
-      </c>
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -2099,15 +1116,9 @@
       <c r="Z22" s="3"/>
     </row>
     <row r="23" spans="1:26" ht="16.5">
-      <c r="A23" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>61</v>
-      </c>
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -2133,15 +1144,9 @@
       <c r="Z23" s="3"/>
     </row>
     <row r="24" spans="1:26" ht="16.5">
-      <c r="A24" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>64</v>
-      </c>
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -2167,15 +1172,9 @@
       <c r="Z24" s="3"/>
     </row>
     <row r="25" spans="1:26" ht="16.5">
-      <c r="A25" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>67</v>
-      </c>
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -2201,15 +1200,9 @@
       <c r="Z25" s="3"/>
     </row>
     <row r="26" spans="1:26" ht="16.5">
-      <c r="A26" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>70</v>
-      </c>
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -2235,15 +1228,9 @@
       <c r="Z26" s="3"/>
     </row>
     <row r="27" spans="1:26" ht="16.5">
-      <c r="A27" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>73</v>
-      </c>
+      <c r="A27" s="2"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="6"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -2269,15 +1256,9 @@
       <c r="Z27" s="3"/>
     </row>
     <row r="28" spans="1:26" ht="16.5">
-      <c r="A28" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>76</v>
-      </c>
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -2303,15 +1284,9 @@
       <c r="Z28" s="3"/>
     </row>
     <row r="29" spans="1:26" ht="16.5">
-      <c r="A29" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>79</v>
-      </c>
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -2337,15 +1312,9 @@
       <c r="Z29" s="3"/>
     </row>
     <row r="30" spans="1:26" ht="16.5">
-      <c r="A30" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>81</v>
-      </c>
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -2371,15 +1340,9 @@
       <c r="Z30" s="3"/>
     </row>
     <row r="31" spans="1:26" ht="16.5">
-      <c r="A31" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>84</v>
-      </c>
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -2405,15 +1368,9 @@
       <c r="Z31" s="3"/>
     </row>
     <row r="32" spans="1:26" ht="16.5">
-      <c r="A32" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>87</v>
-      </c>
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -2439,15 +1396,9 @@
       <c r="Z32" s="3"/>
     </row>
     <row r="33" spans="1:26" ht="16.5">
-      <c r="A33" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>90</v>
-      </c>
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -2473,15 +1424,9 @@
       <c r="Z33" s="3"/>
     </row>
     <row r="34" spans="1:26" ht="16.5">
-      <c r="A34" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>93</v>
-      </c>
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -2507,15 +1452,9 @@
       <c r="Z34" s="3"/>
     </row>
     <row r="35" spans="1:26" ht="16.5">
-      <c r="A35" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>96</v>
-      </c>
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -2541,15 +1480,9 @@
       <c r="Z35" s="3"/>
     </row>
     <row r="36" spans="1:26" ht="16.5">
-      <c r="A36" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>99</v>
-      </c>
+      <c r="A36" s="2"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="2"/>
       <c r="D36" s="7"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -2575,15 +1508,9 @@
       <c r="Z36" s="3"/>
     </row>
     <row r="37" spans="1:26" ht="16.5">
-      <c r="A37" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>102</v>
-      </c>
+      <c r="A37" s="7"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>

--- a/config/vjudge.xlsx
+++ b/config/vjudge.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Liupo\project\OJtool\vjChecker\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8123175-8BFB-428F-B9AE-A211B36245AE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFA4950C-9CAE-4FDC-BC3C-39CC4144DFDE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="3075" windowWidth="20580" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3870" yWindow="1815" windowWidth="20580" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <r>
       <rPr>
@@ -44,19 +44,6 @@
         <charset val="134"/>
       </rPr>
       <t>vjduge用户名</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>牛客用户名</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -483,7 +470,7 @@
   <dimension ref="A1:Z200"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -500,9 +487,7 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
